--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BiShe\test\file_sys\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96969EF3-910F-49BE-B0A4-114413C1CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B21435-D311-4554-B08F-ED9FD03D1517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="186">
   <si>
     <t>学号/工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,86 +47,561 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓计1班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
+    <t>部门名称与角色必须与系统中数据相同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王五</t>
+    <t>詹德用</t>
+  </si>
+  <si>
+    <t>唐梓铭</t>
+  </si>
+  <si>
+    <t>蒙浩天</t>
+  </si>
+  <si>
+    <t>徐登成</t>
+  </si>
+  <si>
+    <t>崔一珂</t>
+  </si>
+  <si>
+    <t>周策</t>
+  </si>
+  <si>
+    <t>杨景辉</t>
+  </si>
+  <si>
+    <t>帅欣</t>
+  </si>
+  <si>
+    <t>毛颖</t>
+  </si>
+  <si>
+    <t>肖迪凡</t>
+  </si>
+  <si>
+    <t>孙佳豪</t>
+  </si>
+  <si>
+    <t>冯律富</t>
+  </si>
+  <si>
+    <t>韩翔宇</t>
+  </si>
+  <si>
+    <t>汪涛</t>
+  </si>
+  <si>
+    <t>潘宇航</t>
+  </si>
+  <si>
+    <t>杜东学</t>
+  </si>
+  <si>
+    <t>胡远洋</t>
+  </si>
+  <si>
+    <t>王志达</t>
+  </si>
+  <si>
+    <t>徐书鹏</t>
+  </si>
+  <si>
+    <t>胡凌锋</t>
+  </si>
+  <si>
+    <t>刘明李奕</t>
+  </si>
+  <si>
+    <t>戴颜如</t>
+  </si>
+  <si>
+    <t>吴政阳</t>
+  </si>
+  <si>
+    <t>王宇坤</t>
+  </si>
+  <si>
+    <t>魏源</t>
+  </si>
+  <si>
+    <t>谢剑锋</t>
+  </si>
+  <si>
+    <t>张钰苓</t>
+  </si>
+  <si>
+    <t>王方莹</t>
+  </si>
+  <si>
+    <t>胡人杰</t>
+  </si>
+  <si>
+    <t>罗鑫</t>
+  </si>
+  <si>
+    <t>林楚棋</t>
+  </si>
+  <si>
+    <t>周宇</t>
+  </si>
+  <si>
+    <t>班委</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵四</t>
+    <t>卓计2101班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罗巍</t>
+    <t>蔡杭</t>
+  </si>
+  <si>
+    <t>黄飞虎</t>
+  </si>
+  <si>
+    <t>谢长勇</t>
+  </si>
+  <si>
+    <t>张嘉</t>
+  </si>
+  <si>
+    <t>龙吟</t>
+  </si>
+  <si>
+    <t>梁智杰</t>
+  </si>
+  <si>
+    <t>杨宏</t>
+  </si>
+  <si>
+    <t>江宁</t>
+  </si>
+  <si>
+    <t>曾辉</t>
+  </si>
+  <si>
+    <t>刘欢</t>
+  </si>
+  <si>
+    <t>李晗晖</t>
+  </si>
+  <si>
+    <t>杨世恩</t>
+  </si>
+  <si>
+    <t>林茂松</t>
+  </si>
+  <si>
+    <t>黄敏</t>
+  </si>
+  <si>
+    <t>刘知贵</t>
+  </si>
+  <si>
+    <t>袁平</t>
+  </si>
+  <si>
+    <t>陈波</t>
+  </si>
+  <si>
+    <t>张晖</t>
+  </si>
+  <si>
+    <t>王桂娟</t>
+  </si>
+  <si>
+    <t>李从磊</t>
+  </si>
+  <si>
+    <t>隆利</t>
+  </si>
+  <si>
+    <t>张秋梅</t>
+  </si>
+  <si>
+    <t>廖丹</t>
+  </si>
+  <si>
+    <t>唐兰兰</t>
+  </si>
+  <si>
+    <t>彭章君</t>
+  </si>
+  <si>
+    <t>王松</t>
+  </si>
+  <si>
+    <t>黄俊</t>
+  </si>
+  <si>
+    <t>杜东周</t>
+  </si>
+  <si>
+    <t>王庆凤</t>
+  </si>
+  <si>
+    <t>韩强</t>
+  </si>
+  <si>
+    <t>邵洲</t>
+  </si>
+  <si>
+    <t>刘小瑜</t>
+  </si>
+  <si>
+    <t>周成毅</t>
+  </si>
+  <si>
+    <t>王娇</t>
+  </si>
+  <si>
+    <t>王修竹</t>
+  </si>
+  <si>
+    <t>张世玲</t>
+  </si>
+  <si>
+    <t>王昆</t>
+  </si>
+  <si>
+    <t>何刚</t>
+  </si>
+  <si>
+    <t>俞文心</t>
+  </si>
+  <si>
+    <t>罗玉琴</t>
+  </si>
+  <si>
+    <t>张杨松</t>
+  </si>
+  <si>
+    <t>郑一露</t>
+  </si>
+  <si>
+    <t>李凌</t>
+  </si>
+  <si>
+    <t>黄洪</t>
+  </si>
+  <si>
+    <t>赵旭剑</t>
+  </si>
+  <si>
+    <t>韦勇</t>
+  </si>
+  <si>
+    <t>彭勇</t>
+  </si>
+  <si>
+    <t>张庆明</t>
+  </si>
+  <si>
+    <t>高琳</t>
+  </si>
+  <si>
+    <t>彭莉娟</t>
+  </si>
+  <si>
+    <t>王耀彬</t>
+  </si>
+  <si>
+    <t>孙涛</t>
+  </si>
+  <si>
+    <t>马立平</t>
+  </si>
+  <si>
+    <t>杨程</t>
+  </si>
+  <si>
+    <t>彭安杰</t>
+  </si>
+  <si>
+    <t>董万利</t>
+  </si>
+  <si>
+    <t>许康</t>
+  </si>
+  <si>
+    <t>魏蓉</t>
+  </si>
+  <si>
+    <t>吴亚东</t>
+  </si>
+  <si>
+    <t>李理</t>
+  </si>
+  <si>
+    <t>段琦</t>
+  </si>
+  <si>
+    <t>付婕</t>
+  </si>
+  <si>
+    <t>刘畅</t>
+  </si>
+  <si>
+    <t>杜中</t>
+  </si>
+  <si>
+    <t>巫玲</t>
+  </si>
+  <si>
+    <t>杨雷</t>
+  </si>
+  <si>
+    <t>周巧临</t>
+  </si>
+  <si>
+    <t>吴珏</t>
+  </si>
+  <si>
+    <t>王雪梅</t>
+  </si>
+  <si>
+    <t>王赋攀</t>
+  </si>
+  <si>
+    <t>张广兵</t>
+  </si>
+  <si>
+    <t>赵冬梅</t>
+  </si>
+  <si>
+    <t>贾浩</t>
+  </si>
+  <si>
+    <t>蒋勇</t>
+  </si>
+  <si>
+    <t>贾渊</t>
+  </si>
+  <si>
+    <t>高小明</t>
+  </si>
+  <si>
+    <t>李乐</t>
+  </si>
+  <si>
+    <t>刘涛</t>
+  </si>
+  <si>
+    <t>赵建峰</t>
+  </si>
+  <si>
+    <t>唐峻</t>
+  </si>
+  <si>
+    <t>李绘卓</t>
+  </si>
+  <si>
+    <t>谢先博</t>
+  </si>
+  <si>
+    <t>范勇</t>
+  </si>
+  <si>
+    <t>张劲峰</t>
+  </si>
+  <si>
+    <t>李胤贤</t>
+  </si>
+  <si>
+    <t>毛光灿</t>
+  </si>
+  <si>
+    <t>敬会</t>
+  </si>
+  <si>
+    <t>陈骏</t>
+  </si>
+  <si>
+    <t>徐鲁强</t>
+  </si>
+  <si>
+    <t>马军</t>
+  </si>
+  <si>
+    <t>范太华</t>
+  </si>
+  <si>
+    <t>宋丽丽</t>
+  </si>
+  <si>
+    <t>孙海峰</t>
+  </si>
+  <si>
+    <t>李春燕</t>
+  </si>
+  <si>
+    <t>刘维光</t>
+  </si>
+  <si>
+    <t>蒋国莉</t>
+  </si>
+  <si>
+    <t>罗云</t>
+  </si>
+  <si>
+    <t>肖德成</t>
+  </si>
+  <si>
+    <t>廖竞</t>
+  </si>
+  <si>
+    <t>顾娅军</t>
+  </si>
+  <si>
+    <t>彭红</t>
+  </si>
+  <si>
+    <t>巫明燕</t>
+  </si>
+  <si>
+    <t>乔虹</t>
+  </si>
+  <si>
+    <t>张晓蓉</t>
+  </si>
+  <si>
+    <t>陈永辉</t>
+  </si>
+  <si>
+    <t>吕琳</t>
+  </si>
+  <si>
+    <t>聂波</t>
+  </si>
+  <si>
+    <t>苏波</t>
+  </si>
+  <si>
+    <t>黄蒙</t>
+  </si>
+  <si>
+    <t>张克非</t>
+  </si>
+  <si>
+    <t>李文凯</t>
+  </si>
+  <si>
+    <t>张卫东</t>
+  </si>
+  <si>
+    <t>李学俊</t>
+  </si>
+  <si>
+    <t>陈立伟</t>
+  </si>
+  <si>
+    <t>罗霞</t>
+  </si>
+  <si>
+    <t>刘涌</t>
+  </si>
+  <si>
+    <t>袁晓辉</t>
+  </si>
+  <si>
+    <t>周宏毅</t>
+  </si>
+  <si>
+    <t>雷全水</t>
+  </si>
+  <si>
+    <t>韩永国</t>
+  </si>
+  <si>
+    <t>左旭辉</t>
+  </si>
+  <si>
+    <t>杨振中</t>
+  </si>
+  <si>
+    <t>江玲</t>
+  </si>
+  <si>
+    <t>贾小林</t>
+  </si>
+  <si>
+    <t>潘娅</t>
+  </si>
+  <si>
+    <t>刘志勤</t>
+  </si>
+  <si>
+    <t>周勇</t>
+  </si>
+  <si>
+    <t>张平</t>
+  </si>
+  <si>
+    <t>何光发</t>
+  </si>
+  <si>
+    <t>曾立胜</t>
+  </si>
+  <si>
+    <t>蔡茂蓉</t>
+  </si>
+  <si>
+    <t>黎茂锋</t>
+  </si>
+  <si>
+    <t>刘敏贤</t>
+  </si>
+  <si>
+    <t>孙敏</t>
+  </si>
+  <si>
+    <t>黄晓芳</t>
+  </si>
+  <si>
+    <t>陈元松</t>
+  </si>
+  <si>
+    <t>覃仁超</t>
+  </si>
+  <si>
+    <t>陈华容</t>
+  </si>
+  <si>
+    <t>李波</t>
+  </si>
+  <si>
+    <t>毕国堂</t>
+  </si>
+  <si>
+    <t>陈念年</t>
+  </si>
+  <si>
+    <t>杨春明</t>
+  </si>
+  <si>
+    <t>教学办</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔡徐坤</t>
+    <t>党政办</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周杰伦</t>
+    <t>教师</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙尚香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周润发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨幂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓计2班</t>
-  </si>
-  <si>
-    <t>卓计3班</t>
-  </si>
-  <si>
-    <t>卓计4班</t>
-  </si>
-  <si>
-    <t>卓计5班</t>
-  </si>
-  <si>
-    <t>卓计6班</t>
-  </si>
-  <si>
-    <t>卓计7班</t>
-  </si>
-  <si>
-    <t>卓计8班</t>
-  </si>
-  <si>
-    <t>卓计9班</t>
-  </si>
-  <si>
-    <t>卓计10班</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +614,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,8 +644,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,18 +928,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -465,181 +950,2989 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>5120210345</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>5120210001</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5120210002</v>
+        <v>5120210642</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5120210003</v>
+        <v>5120210691</v>
       </c>
       <c r="C4">
         <v>123456</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5120210004</v>
+        <v>5120210864</v>
       </c>
       <c r="C5">
         <v>123456</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>5120210005</v>
+        <v>5120211792</v>
       </c>
       <c r="C6">
         <v>123456</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>5120210006</v>
+        <v>5120211830</v>
       </c>
       <c r="C7">
         <v>123456</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>5120210007</v>
+        <v>5120211833</v>
       </c>
       <c r="C8">
         <v>123456</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>5120210008</v>
+        <v>5120212438</v>
       </c>
       <c r="C9">
         <v>123456</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>5120210009</v>
+        <v>5120213288</v>
       </c>
       <c r="C10">
         <v>123456</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>5120210010</v>
+        <v>5120213574</v>
       </c>
       <c r="C11">
         <v>123456</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>5120213603</v>
+      </c>
+      <c r="C12">
+        <v>123456</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>5120213768</v>
+      </c>
+      <c r="C13">
+        <v>123456</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>5120213776</v>
+      </c>
+      <c r="C14">
+        <v>123456</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>5120213981</v>
+      </c>
+      <c r="C15">
+        <v>123456</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>5120213998</v>
+      </c>
+      <c r="C16">
+        <v>123456</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>5120214103</v>
+      </c>
+      <c r="C17">
+        <v>123456</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>5120214350</v>
+      </c>
+      <c r="C18">
+        <v>123456</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>5120214433</v>
+      </c>
+      <c r="C19">
+        <v>123456</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
+      <c r="B20">
+        <v>5120214558</v>
+      </c>
+      <c r="C20">
+        <v>123456</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>5120214606</v>
+      </c>
+      <c r="C21">
+        <v>123456</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>5120214701</v>
+      </c>
+      <c r="C22">
+        <v>123456</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>5120214933</v>
+      </c>
+      <c r="C23">
+        <v>123456</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>5120215135</v>
+      </c>
+      <c r="C24">
+        <v>123456</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>5120215328</v>
+      </c>
+      <c r="C25">
+        <v>123456</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>5120215407</v>
+      </c>
+      <c r="C26">
+        <v>123456</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>5120215606</v>
+      </c>
+      <c r="C27">
+        <v>123456</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>5120215733</v>
+      </c>
+      <c r="C28">
+        <v>123456</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>5120215734</v>
+      </c>
+      <c r="C29">
+        <v>123456</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>5120215880</v>
+      </c>
+      <c r="C30">
+        <v>123456</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>5120216063</v>
+      </c>
+      <c r="C31">
+        <v>123456</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>5120216245</v>
+      </c>
+      <c r="C32">
+        <v>123456</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>5120216250</v>
+      </c>
+      <c r="C33">
+        <v>123456</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>1020090038</v>
+      </c>
+      <c r="C34">
+        <v>123456</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>1020200006</v>
+      </c>
+      <c r="C35">
+        <v>123456</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1020000012</v>
+      </c>
+      <c r="C36">
+        <v>123456</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>1620190016</v>
+      </c>
+      <c r="C37">
+        <v>123456</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>1020190010</v>
+      </c>
+      <c r="C38">
+        <v>123456</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>1020110055</v>
+      </c>
+      <c r="C39">
+        <v>123456</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>1020170016</v>
+      </c>
+      <c r="C40">
+        <v>123456</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>1020180058</v>
+      </c>
+      <c r="C41">
+        <v>123456</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>1020180052</v>
+      </c>
+      <c r="C42">
+        <v>123456</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>1620180034</v>
+      </c>
+      <c r="C43">
+        <v>123456</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>1120180015</v>
+      </c>
+      <c r="C44">
+        <v>123456</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>1019990004</v>
+      </c>
+      <c r="C45">
+        <v>123456</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>1020000675</v>
+      </c>
+      <c r="C46">
+        <v>123456</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>1020000200</v>
+      </c>
+      <c r="C47">
+        <v>123456</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>1020000176</v>
+      </c>
+      <c r="C48">
+        <v>123456</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>1020000207</v>
+      </c>
+      <c r="C49">
+        <v>123456</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>1020000618</v>
+      </c>
+      <c r="C50">
+        <v>123456</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>1020000692</v>
+      </c>
+      <c r="C51">
+        <v>123456</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>1620170036</v>
+      </c>
+      <c r="C52">
+        <v>123456</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>1720130034</v>
+      </c>
+      <c r="C53">
+        <v>123456</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>1720100050</v>
+      </c>
+      <c r="C54">
+        <v>123456</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>1720080186</v>
+      </c>
+      <c r="C55">
+        <v>123456</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>1720080185</v>
+      </c>
+      <c r="C56">
+        <v>123456</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1720080183</v>
+      </c>
+      <c r="C57">
+        <v>123456</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>1620170023</v>
+      </c>
+      <c r="C58">
+        <v>123456</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>1620170007</v>
+      </c>
+      <c r="C59">
+        <v>123456</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>1620150017</v>
+      </c>
+      <c r="C60">
+        <v>123456</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>1620150016</v>
+      </c>
+      <c r="C61">
+        <v>123456</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>1520150027</v>
+      </c>
+      <c r="C62">
+        <v>123456</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>1520140054</v>
+      </c>
+      <c r="C63">
+        <v>123456</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>1520140041</v>
+      </c>
+      <c r="C64">
+        <v>123456</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>1520140030</v>
+      </c>
+      <c r="C65">
+        <v>123456</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>1520140001</v>
+      </c>
+      <c r="C66">
+        <v>123456</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>1120130038</v>
+      </c>
+      <c r="C67">
+        <v>123456</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>1020130055</v>
+      </c>
+      <c r="C68">
+        <v>123456</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>1020070058</v>
+      </c>
+      <c r="C69">
+        <v>123456</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>1019990017</v>
+      </c>
+      <c r="C70">
+        <v>123456</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>1019990016</v>
+      </c>
+      <c r="C71">
+        <v>123456</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>1020150024</v>
+      </c>
+      <c r="C72">
+        <v>123456</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>1020150003</v>
+      </c>
+      <c r="C73">
+        <v>123456</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>1020140022</v>
+      </c>
+      <c r="C74">
+        <v>123456</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>1020130115</v>
+      </c>
+      <c r="C75">
+        <v>123456</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>1020130052</v>
+      </c>
+      <c r="C76">
+        <v>123456</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>1020130004</v>
+      </c>
+      <c r="C77">
+        <v>123456</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
+        <v>1020120088</v>
+      </c>
+      <c r="C78">
+        <v>123456</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>1020120062</v>
+      </c>
+      <c r="C79">
+        <v>123456</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>1020110095</v>
+      </c>
+      <c r="C80">
+        <v>123456</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>1020110054</v>
+      </c>
+      <c r="C81">
+        <v>123456</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>1020100044</v>
+      </c>
+      <c r="C82">
+        <v>123456</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>1020100033</v>
+      </c>
+      <c r="C83">
+        <v>123456</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>1020100023</v>
+      </c>
+      <c r="C84">
+        <v>123456</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>1020100011</v>
+      </c>
+      <c r="C85">
+        <v>123456</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>1020080063</v>
+      </c>
+      <c r="C86">
+        <v>123456</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>1020080006</v>
+      </c>
+      <c r="C87">
+        <v>123456</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>1020070175</v>
+      </c>
+      <c r="C88">
+        <v>123456</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>1020070131</v>
+      </c>
+      <c r="C89">
+        <v>123456</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>1020070111</v>
+      </c>
+      <c r="C90">
+        <v>123456</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>1020070097</v>
+      </c>
+      <c r="C91">
+        <v>123456</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>1020070087</v>
+      </c>
+      <c r="C92">
+        <v>123456</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>1020060136</v>
+      </c>
+      <c r="C93">
+        <v>123456</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94">
+        <v>1020060050</v>
+      </c>
+      <c r="C94">
+        <v>123456</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95">
+        <v>1020060046</v>
+      </c>
+      <c r="C95">
+        <v>123456</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96">
+        <v>1020060042</v>
+      </c>
+      <c r="C96">
+        <v>123456</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97">
+        <v>1020060013</v>
+      </c>
+      <c r="C97">
+        <v>123456</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>1020050159</v>
+      </c>
+      <c r="C98">
+        <v>123456</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
+        <v>1020050158</v>
+      </c>
+      <c r="C99">
+        <v>123456</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
+        <v>1020050148</v>
+      </c>
+      <c r="C100">
+        <v>123456</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E100" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101">
+        <v>1020050131</v>
+      </c>
+      <c r="C101">
+        <v>123456</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102">
+        <v>1020050102</v>
+      </c>
+      <c r="C102">
+        <v>123456</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103">
+        <v>1020050069</v>
+      </c>
+      <c r="C103">
+        <v>123456</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>1020050057</v>
+      </c>
+      <c r="C104">
+        <v>123456</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
+        <v>1020050044</v>
+      </c>
+      <c r="C105">
+        <v>123456</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E105" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106">
+        <v>1020050040</v>
+      </c>
+      <c r="C106">
+        <v>123456</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107">
+        <v>1020050035</v>
+      </c>
+      <c r="C107">
+        <v>123456</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
+        <v>1020050023</v>
+      </c>
+      <c r="C108">
+        <v>123456</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>1020050021</v>
+      </c>
+      <c r="C109">
+        <v>123456</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>1020050004</v>
+      </c>
+      <c r="C110">
+        <v>123456</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E110" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111">
+        <v>1020050003</v>
+      </c>
+      <c r="C111">
+        <v>123456</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E111" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112">
+        <v>1020040124</v>
+      </c>
+      <c r="C112">
+        <v>123456</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E112" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>1020040068</v>
+      </c>
+      <c r="C113">
+        <v>123456</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>1020040067</v>
+      </c>
+      <c r="C114">
+        <v>123456</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>1020040066</v>
+      </c>
+      <c r="C115">
+        <v>123456</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E115" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116">
+        <v>1020040026</v>
+      </c>
+      <c r="C116">
+        <v>123456</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
+        <v>1020040021</v>
+      </c>
+      <c r="C117">
+        <v>123456</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
+        <v>1020040013</v>
+      </c>
+      <c r="C118">
+        <v>123456</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E118" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119">
+        <v>1020030147</v>
+      </c>
+      <c r="C119">
+        <v>123456</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
+        <v>1020030085</v>
+      </c>
+      <c r="C120">
+        <v>123456</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E120" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>1020030039</v>
+      </c>
+      <c r="C121">
+        <v>123456</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E121" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122">
+        <v>1020020088</v>
+      </c>
+      <c r="C122">
+        <v>123456</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E122" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>1020020059</v>
+      </c>
+      <c r="C123">
+        <v>123456</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E123" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124">
+        <v>1020020058</v>
+      </c>
+      <c r="C124">
+        <v>123456</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E124" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125">
+        <v>1020020057</v>
+      </c>
+      <c r="C125">
+        <v>123456</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E125" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126">
+        <v>1020020056</v>
+      </c>
+      <c r="C126">
+        <v>123456</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>1020020055</v>
+      </c>
+      <c r="C127">
+        <v>123456</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>1020020054</v>
+      </c>
+      <c r="C128">
+        <v>123456</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E128" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
+        <v>1020010112</v>
+      </c>
+      <c r="C129">
+        <v>123456</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E129" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130">
+        <v>1020010102</v>
+      </c>
+      <c r="C130">
+        <v>123456</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131">
+        <v>1020010068</v>
+      </c>
+      <c r="C131">
+        <v>123456</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132">
+        <v>1020010067</v>
+      </c>
+      <c r="C132">
+        <v>123456</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133">
+        <v>1020010066</v>
+      </c>
+      <c r="C133">
+        <v>123456</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134">
+        <v>1020010064</v>
+      </c>
+      <c r="C134">
+        <v>123456</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135">
+        <v>1020010063</v>
+      </c>
+      <c r="C135">
+        <v>123456</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E135" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136">
+        <v>1020010062</v>
+      </c>
+      <c r="C136">
+        <v>123456</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137">
+        <v>1020010061</v>
+      </c>
+      <c r="C137">
+        <v>123456</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138">
+        <v>1020010060</v>
+      </c>
+      <c r="C138">
+        <v>123456</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>1020010059</v>
+      </c>
+      <c r="C139">
+        <v>123456</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
+        <v>1020010058</v>
+      </c>
+      <c r="C140">
+        <v>123456</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>1020010057</v>
+      </c>
+      <c r="C141">
+        <v>123456</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142">
+        <v>1020010017</v>
+      </c>
+      <c r="C142">
+        <v>123456</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E142" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143">
+        <v>1020000697</v>
+      </c>
+      <c r="C143">
+        <v>123456</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>1020000695</v>
+      </c>
+      <c r="C144">
+        <v>123456</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145">
+        <v>1020000694</v>
+      </c>
+      <c r="C145">
+        <v>123456</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>1020000693</v>
+      </c>
+      <c r="C146">
+        <v>123456</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147">
+        <v>1020000691</v>
+      </c>
+      <c r="C147">
+        <v>123456</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>1020000690</v>
+      </c>
+      <c r="C148">
+        <v>123456</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>1020000689</v>
+      </c>
+      <c r="C149">
+        <v>123456</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150">
+        <v>1020000688</v>
+      </c>
+      <c r="C150">
+        <v>123456</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>1020000686</v>
+      </c>
+      <c r="C151">
+        <v>123456</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152">
+        <v>1020000685</v>
+      </c>
+      <c r="C152">
+        <v>123456</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>1020000683</v>
+      </c>
+      <c r="C153">
+        <v>123456</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>1020000682</v>
+      </c>
+      <c r="C154">
+        <v>123456</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>1020000681</v>
+      </c>
+      <c r="C155">
+        <v>123456</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156">
+        <v>1020000679</v>
+      </c>
+      <c r="C156">
+        <v>123456</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157">
+        <v>1020000678</v>
+      </c>
+      <c r="C157">
+        <v>123456</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158">
+        <v>1020000677</v>
+      </c>
+      <c r="C158">
+        <v>123456</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159">
+        <v>1020000676</v>
+      </c>
+      <c r="C159">
+        <v>123456</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160">
+        <v>1020000240</v>
+      </c>
+      <c r="C160">
+        <v>123456</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161">
+        <v>1020000206</v>
+      </c>
+      <c r="C161">
+        <v>123456</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162">
+        <v>1020000204</v>
+      </c>
+      <c r="C162">
+        <v>123456</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E162" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163">
+        <v>1020000201</v>
+      </c>
+      <c r="C163">
+        <v>123456</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E163" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164">
+        <v>1020000090</v>
+      </c>
+      <c r="C164">
+        <v>123456</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165">
+        <v>1020000057</v>
+      </c>
+      <c r="C165">
+        <v>123456</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E165" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166">
+        <v>1020000056</v>
+      </c>
+      <c r="C166">
+        <v>123456</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E166" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167">
+        <v>1020000055</v>
+      </c>
+      <c r="C167">
+        <v>123456</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E167" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168">
+        <v>1020000054</v>
+      </c>
+      <c r="C168">
+        <v>123456</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169">
+        <v>1020000052</v>
+      </c>
+      <c r="C169">
+        <v>123456</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170">
+        <v>1020000051</v>
+      </c>
+      <c r="C170">
+        <v>123456</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171">
+        <v>1020000050</v>
+      </c>
+      <c r="C171">
+        <v>123456</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E171" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172">
+        <v>1020000049</v>
+      </c>
+      <c r="C172">
+        <v>123456</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E172" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173">
+        <v>1020000048</v>
+      </c>
+      <c r="C173">
+        <v>123456</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174">
+        <v>1020000047</v>
+      </c>
+      <c r="C174">
+        <v>123456</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E174" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175">
+        <v>1020000046</v>
+      </c>
+      <c r="C175">
+        <v>123456</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E175" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176">
+        <v>1020010065</v>
+      </c>
+      <c r="C176">
+        <v>123456</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
